--- a/project-documentation/product-documentation/Features.xlsx
+++ b/project-documentation/product-documentation/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC743E-06B7-4796-9241-A53D3F2FB456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0207CA53-9A63-4272-A11D-216122F3B319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Feature Name</t>
   </si>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -327,7 +327,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,13 +626,13 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="39.88671875" customWidth="1"/>
     <col min="4" max="5" width="25.21875" customWidth="1"/>
@@ -839,7 +844,7 @@
     </row>
     <row r="13" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
@@ -850,13 +855,13 @@
       <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="5">
-        <v>12</v>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>32</v>
@@ -873,7 +878,7 @@
     </row>
     <row r="15" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>34</v>
@@ -890,7 +895,7 @@
     </row>
     <row r="16" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>36</v>
@@ -907,7 +912,7 @@
     </row>
     <row r="17" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>38</v>
@@ -924,7 +929,7 @@
     </row>
     <row r="18" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>40</v>
